--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value198.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value198.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.119577761350167</v>
+        <v>4.272677421569824</v>
       </c>
       <c r="B1">
-        <v>1.792055112981399</v>
+        <v>3.229651927947998</v>
       </c>
       <c r="C1">
-        <v>2.551581589349661</v>
+        <v>4.005142211914062</v>
       </c>
       <c r="D1">
-        <v>2.404970911290593</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.697481237941096</v>
+        <v>3.198182821273804</v>
       </c>
     </row>
   </sheetData>
